--- a/Team-Data/2007-08/1-31-2007-08.xlsx
+++ b/Team-Data/2007-08/1-31-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>18</v>
@@ -795,7 +862,7 @@
         <v>12</v>
       </c>
       <c r="AU2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV2" t="n">
         <v>21</v>
@@ -807,7 +874,7 @@
         <v>3</v>
       </c>
       <c r="AY2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" t="n">
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -869,64 +936,64 @@
         <v>75.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L3" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19.1</v>
+        <v>19.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.378</v>
+        <v>0.377</v>
       </c>
       <c r="O3" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="P3" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.769</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U3" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V3" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
         <v>4.4</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>23</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
         <v>99.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,13 +1008,13 @@
         <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
       </c>
       <c r="AK3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL3" t="n">
         <v>9</v>
@@ -965,25 +1032,25 @@
         <v>7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AR3" t="n">
         <v>26</v>
       </c>
       <c r="AS3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AT3" t="n">
         <v>19</v>
       </c>
       <c r="AU3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AV3" t="n">
         <v>16</v>
       </c>
       <c r="AW3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX3" t="n">
         <v>23</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1159,7 +1226,7 @@
         <v>27</v>
       </c>
       <c r="AU4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1357,7 @@
         <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1305,7 +1372,7 @@
         <v>6</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1329,7 +1396,7 @@
         <v>21</v>
       </c>
       <c r="AQ5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1341,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -1394,61 +1461,61 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="n">
         <v>25</v>
       </c>
       <c r="F6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" t="n">
-        <v>0.556</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>48.8</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>36.2</v>
       </c>
       <c r="J6" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K6" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L6" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M6" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="O6" t="n">
-        <v>18.3</v>
+        <v>18.2</v>
       </c>
       <c r="P6" t="n">
         <v>25.3</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.724</v>
+        <v>0.721</v>
       </c>
       <c r="R6" t="n">
         <v>13.2</v>
       </c>
       <c r="S6" t="n">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="T6" t="n">
-        <v>44.4</v>
+        <v>44.7</v>
       </c>
       <c r="U6" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="V6" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W6" t="n">
         <v>7.8</v>
@@ -1460,25 +1527,25 @@
         <v>4.8</v>
       </c>
       <c r="Z6" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA6" t="n">
         <v>20.1</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.90000000000001</v>
+        <v>97</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
       </c>
       <c r="AF6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
         <v>13</v>
@@ -1493,34 +1560,34 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>14</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP6" t="n">
         <v>16</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU6" t="n">
         <v>27</v>
@@ -1535,10 +1602,10 @@
         <v>19</v>
       </c>
       <c r="AY6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -1576,37 +1643,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" t="n">
         <v>31</v>
       </c>
       <c r="F7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6889999999999999</v>
+        <v>0.705</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J7" t="n">
-        <v>78</v>
+        <v>78.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L7" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N7" t="n">
-        <v>0.353</v>
+        <v>0.358</v>
       </c>
       <c r="O7" t="n">
         <v>21.4</v>
@@ -1615,16 +1682,16 @@
         <v>26</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.823</v>
+        <v>0.822</v>
       </c>
       <c r="R7" t="n">
         <v>10.4</v>
       </c>
       <c r="S7" t="n">
-        <v>31.7</v>
+        <v>31.8</v>
       </c>
       <c r="T7" t="n">
-        <v>42.1</v>
+        <v>42.2</v>
       </c>
       <c r="U7" t="n">
         <v>20.3</v>
@@ -1633,7 +1700,7 @@
         <v>13</v>
       </c>
       <c r="W7" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X7" t="n">
         <v>5.3</v>
@@ -1642,25 +1709,25 @@
         <v>4</v>
       </c>
       <c r="Z7" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB7" t="n">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
       </c>
       <c r="AF7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG7" t="n">
         <v>5</v>
@@ -1675,16 +1742,16 @@
         <v>27</v>
       </c>
       <c r="AK7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL7" t="n">
         <v>18</v>
       </c>
       <c r="AM7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1696,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="AR7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AS7" t="n">
         <v>7</v>
@@ -1714,19 +1781,19 @@
         <v>28</v>
       </c>
       <c r="AX7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY7" t="n">
         <v>5</v>
       </c>
       <c r="AZ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1903,7 @@
         <v>2.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
         <v>11</v>
@@ -1863,10 +1930,10 @@
         <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1884,10 +1951,10 @@
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>25</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" t="n">
         <v>13</v>
       </c>
       <c r="G9" t="n">
-        <v>0.717</v>
+        <v>0.711</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J9" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L9" t="n">
         <v>5.8</v>
@@ -1970,13 +2037,13 @@
         <v>16</v>
       </c>
       <c r="N9" t="n">
-        <v>0.366</v>
+        <v>0.365</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q9" t="n">
         <v>0.761</v>
@@ -1985,19 +2052,19 @@
         <v>11.5</v>
       </c>
       <c r="S9" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T9" t="n">
         <v>40.8</v>
       </c>
       <c r="U9" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V9" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="W9" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="X9" t="n">
         <v>5.1</v>
@@ -2006,28 +2073,28 @@
         <v>3.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA9" t="n">
         <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.7</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF9" t="n">
         <v>2</v>
       </c>
       <c r="AG9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH9" t="n">
         <v>27</v>
@@ -2039,7 +2106,7 @@
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL9" t="n">
         <v>19</v>
@@ -2051,7 +2118,7 @@
         <v>10</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
         <v>17</v>
@@ -2075,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AX9" t="n">
         <v>10</v>
@@ -2087,7 +2154,7 @@
         <v>10</v>
       </c>
       <c r="BA9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -2203,7 +2270,7 @@
         <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF10" t="n">
         <v>11</v>
@@ -2257,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="AW10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX10" t="n">
         <v>20</v>
@@ -2272,7 +2339,7 @@
         <v>8</v>
       </c>
       <c r="BB10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC10" t="n">
         <v>13</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -2382,16 +2449,16 @@
         <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>13</v>
       </c>
       <c r="AF11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH11" t="n">
         <v>20</v>
@@ -2418,7 +2485,7 @@
         <v>26</v>
       </c>
       <c r="AP11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ11" t="n">
         <v>22</v>
@@ -2427,13 +2494,13 @@
         <v>6</v>
       </c>
       <c r="AS11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT11" t="n">
         <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV11" t="n">
         <v>13</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
@@ -2576,7 +2643,7 @@
         <v>20</v>
       </c>
       <c r="AH12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2612,7 +2679,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AU12" t="n">
         <v>6</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -2773,7 +2840,7 @@
         <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN13" t="n">
         <v>28</v>
@@ -2791,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="AS13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AU13" t="n">
         <v>11</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>12</v>
@@ -2806,7 +2873,7 @@
         <v>22</v>
       </c>
       <c r="AX13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY13" t="n">
         <v>20</v>
@@ -2815,7 +2882,7 @@
         <v>19</v>
       </c>
       <c r="BA13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E14" t="n">
         <v>28</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.636</v>
+        <v>0.651</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.8</v>
+        <v>39</v>
       </c>
       <c r="J14" t="n">
-        <v>81.8</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K14" t="n">
-        <v>0.474</v>
+        <v>0.475</v>
       </c>
       <c r="L14" t="n">
         <v>7.2</v>
@@ -2883,28 +2950,28 @@
         <v>0.367</v>
       </c>
       <c r="O14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="P14" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R14" t="n">
         <v>11</v>
       </c>
       <c r="S14" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T14" t="n">
-        <v>44.8</v>
+        <v>45</v>
       </c>
       <c r="U14" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="V14" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
@@ -2913,31 +2980,31 @@
         <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA14" t="n">
         <v>23.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.9</v>
+        <v>107.3</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH14" t="n">
         <v>24</v>
@@ -2964,10 +3031,10 @@
         <v>2</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>18</v>
@@ -2976,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="AT14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU14" t="n">
         <v>3</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>24</v>
@@ -2997,13 +3064,13 @@
         <v>16</v>
       </c>
       <c r="BA14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-4.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3125,7 +3192,7 @@
         <v>9</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ15" t="n">
         <v>14</v>
@@ -3143,7 +3210,7 @@
         <v>8</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP15" t="n">
         <v>18</v>
@@ -3155,7 +3222,7 @@
         <v>22</v>
       </c>
       <c r="AS15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT15" t="n">
         <v>18</v>
@@ -3170,19 +3237,19 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC15" t="n">
         <v>24</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-7</v>
       </c>
       <c r="AD16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE16" t="n">
         <v>29</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3349,7 +3416,7 @@
         <v>14</v>
       </c>
       <c r="AW16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX16" t="n">
         <v>18</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-8</v>
       </c>
       <c r="AD18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3695,7 +3762,7 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AR18" t="n">
         <v>6</v>
@@ -3713,10 +3780,10 @@
         <v>23</v>
       </c>
       <c r="AW18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY18" t="n">
         <v>30</v>
@@ -3731,7 +3798,7 @@
         <v>28</v>
       </c>
       <c r="BC18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-5.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
@@ -3889,7 +3956,7 @@
         <v>11</v>
       </c>
       <c r="AU19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV19" t="n">
         <v>26</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -4020,10 +4087,10 @@
         <v>6.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF20" t="n">
         <v>2</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
         <v>29</v>
@@ -4065,13 +4132,13 @@
         <v>12</v>
       </c>
       <c r="AS20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT20" t="n">
         <v>8</v>
       </c>
       <c r="AU20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV20" t="n">
         <v>3</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>25</v>
@@ -4235,7 +4302,7 @@
         <v>23</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -4420,7 +4487,7 @@
         <v>7</v>
       </c>
       <c r="AP22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22" t="n">
         <v>23</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>-2</v>
       </c>
       <c r="AD23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>21</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -4670,49 +4737,49 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" t="n">
         <v>33</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" t="n">
-        <v>0.702</v>
+        <v>0.717</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
       </c>
       <c r="I24" t="n">
-        <v>41.3</v>
+        <v>41.7</v>
       </c>
       <c r="J24" t="n">
-        <v>84.09999999999999</v>
+        <v>84.3</v>
       </c>
       <c r="K24" t="n">
-        <v>0.492</v>
+        <v>0.494</v>
       </c>
       <c r="L24" t="n">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="M24" t="n">
         <v>23.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.382</v>
+        <v>0.385</v>
       </c>
       <c r="O24" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P24" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.786</v>
+        <v>0.788</v>
       </c>
       <c r="R24" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="S24" t="n">
         <v>32.2</v>
@@ -4721,43 +4788,43 @@
         <v>40.6</v>
       </c>
       <c r="U24" t="n">
-        <v>27.4</v>
+        <v>27.6</v>
       </c>
       <c r="V24" t="n">
         <v>13.6</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X24" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="Y24" t="n">
         <v>3.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB24" t="n">
-        <v>109.2</v>
+        <v>109.8</v>
       </c>
       <c r="AC24" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
         <v>2</v>
       </c>
       <c r="AF24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AG24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AH24" t="n">
         <v>28</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL24" t="n">
         <v>2</v>
@@ -4781,10 +4848,10 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AP24" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ24" t="n">
         <v>5</v>
@@ -4796,7 +4863,7 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
@@ -4814,13 +4881,13 @@
         <v>2</v>
       </c>
       <c r="AZ24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA24" t="n">
         <v>25</v>
       </c>
       <c r="BB24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC24" t="n">
         <v>4</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -4930,7 +4997,7 @@
         <v>0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
         <v>12</v>
@@ -4969,7 +5036,7 @@
         <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR25" t="n">
         <v>20</v>
@@ -4981,7 +5048,7 @@
         <v>28</v>
       </c>
       <c r="AU25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV25" t="n">
         <v>7</v>
@@ -5002,7 +5069,7 @@
         <v>18</v>
       </c>
       <c r="BB25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5124,7 +5191,7 @@
         <v>17</v>
       </c>
       <c r="AH26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
         <v>18</v>
@@ -5133,7 +5200,7 @@
         <v>26</v>
       </c>
       <c r="AK26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL26" t="n">
         <v>15</v>
@@ -5154,7 +5221,7 @@
         <v>4</v>
       </c>
       <c r="AR26" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS26" t="n">
         <v>23</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -5216,61 +5283,61 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27" t="n">
         <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>0.644</v>
+        <v>0.636</v>
       </c>
       <c r="H27" t="n">
         <v>48.1</v>
       </c>
       <c r="I27" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J27" t="n">
         <v>78.59999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
       <c r="L27" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M27" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.376</v>
+        <v>0.375</v>
       </c>
       <c r="O27" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="P27" t="n">
         <v>22.3</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R27" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S27" t="n">
-        <v>31.2</v>
+        <v>31</v>
       </c>
       <c r="T27" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U27" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="V27" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="W27" t="n">
         <v>6.6</v>
@@ -5282,28 +5349,28 @@
         <v>4.7</v>
       </c>
       <c r="Z27" t="n">
-        <v>18.4</v>
+        <v>18.2</v>
       </c>
       <c r="AA27" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB27" t="n">
-        <v>96</v>
+        <v>96.3</v>
       </c>
       <c r="AC27" t="n">
         <v>4.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AE27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH27" t="n">
         <v>25</v>
@@ -5315,46 +5382,46 @@
         <v>23</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM27" t="n">
         <v>6</v>
       </c>
       <c r="AN27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO27" t="n">
         <v>25</v>
       </c>
       <c r="AP27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ27" t="n">
         <v>15</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AS27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV27" t="n">
         <v>4</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY27" t="n">
         <v>13</v>
@@ -5363,10 +5430,10 @@
         <v>1</v>
       </c>
       <c r="BA27" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BB27" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC27" t="n">
         <v>8</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -5398,67 +5465,67 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F28" t="n">
         <v>35</v>
       </c>
       <c r="G28" t="n">
-        <v>0.239</v>
+        <v>0.222</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
       </c>
       <c r="I28" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J28" t="n">
-        <v>85.5</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L28" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="M28" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="N28" t="n">
-        <v>0.332</v>
+        <v>0.33</v>
       </c>
       <c r="O28" t="n">
-        <v>17.5</v>
+        <v>17.7</v>
       </c>
       <c r="P28" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.767</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
         <v>11.7</v>
       </c>
       <c r="S28" t="n">
-        <v>33.3</v>
+        <v>33.4</v>
       </c>
       <c r="T28" t="n">
-        <v>45</v>
+        <v>45.1</v>
       </c>
       <c r="U28" t="n">
-        <v>21.4</v>
+        <v>21.1</v>
       </c>
       <c r="V28" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="W28" t="n">
         <v>6.6</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y28" t="n">
         <v>5.5</v>
@@ -5470,13 +5537,13 @@
         <v>20</v>
       </c>
       <c r="AB28" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC28" t="n">
-        <v>-7.7</v>
+        <v>-8</v>
       </c>
       <c r="AD28" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
         <v>28</v>
@@ -5488,34 +5555,34 @@
         <v>28</v>
       </c>
       <c r="AH28" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>3</v>
       </c>
       <c r="AK28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL28" t="n">
         <v>26</v>
       </c>
       <c r="AM28" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN28" t="n">
         <v>27</v>
       </c>
-      <c r="AN28" t="n">
-        <v>26</v>
-      </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AP28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>14</v>
@@ -5527,19 +5594,19 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AV28" t="n">
         <v>27</v>
       </c>
       <c r="AW28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX28" t="n">
         <v>8</v>
       </c>
       <c r="AY28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ28" t="n">
         <v>12</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -5658,22 +5725,22 @@
         <v>3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE29" t="n">
         <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ29" t="n">
         <v>13</v>
@@ -5682,7 +5749,7 @@
         <v>10</v>
       </c>
       <c r="AL29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5700,13 +5767,13 @@
         <v>2</v>
       </c>
       <c r="AR29" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS29" t="n">
         <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>8</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>5.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE30" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF30" t="n">
         <v>8</v>
@@ -5861,7 +5928,7 @@
         <v>15</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL30" t="n">
         <v>28</v>
@@ -5870,7 +5937,7 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>4</v>
@@ -5909,13 +5976,13 @@
         <v>30</v>
       </c>
       <c r="BA30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB30" t="n">
         <v>5</v>
       </c>
       <c r="BC30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>1.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6091,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BB31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-31-2007-08</t>
+          <t>2008-01-31</t>
         </is>
       </c>
     </row>
